--- a/Chapter 3/Chapter 03-HW.xlsx
+++ b/Chapter 3/Chapter 03-HW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vafa.saboorideilami/Documents/5509 Summer 2024/Chapter 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F287EA-DC7A-2A49-BDB8-6A731990CA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D896E1C-A780-454B-A2B3-114540622A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="754" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1239,7 +1239,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1350,15 +1350,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -7573,7 +7564,7 @@
   <dimension ref="A6:H22"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="14"/>
@@ -7654,7 +7645,7 @@
       </c>
       <c r="F11" s="3">
         <f>SUMPRODUCT(C11:E11,$C$15:$E$15)</f>
-        <v>0</v>
+        <v>39.979999999999997</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>40</v>
@@ -7678,7 +7669,7 @@
       </c>
       <c r="F12" s="3">
         <f>SUMPRODUCT(C12:E12,$C$15:$E$15)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>40</v>
@@ -7706,20 +7697,20 @@
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="39">
-        <v>0</v>
-      </c>
-      <c r="D15" s="40">
-        <v>0</v>
-      </c>
-      <c r="E15" s="41">
+      <c r="C15" s="7">
+        <v>364</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1090</v>
+      </c>
+      <c r="E15" s="15">
         <v>0</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="10">
         <f>SUMPRODUCT(C8:E8,C15:E15)</f>
-        <v>0</v>
+        <v>61800</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -7741,8 +7732,8 @@
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="14"/>
@@ -7837,7 +7828,7 @@
       </c>
       <c r="F7" s="3">
         <f>SUMPRODUCT(C7:E7,$C$12:$E$12)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>39</v>
@@ -7861,7 +7852,7 @@
       </c>
       <c r="F8" s="3">
         <f>SUMPRODUCT(C8:E8,$C$12:$E$12)</f>
-        <v>0</v>
+        <v>179.99999999999997</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>39</v>
@@ -7885,7 +7876,7 @@
       </c>
       <c r="F9" s="3">
         <f>SUMPRODUCT(C9:E9,$C$12:$E$12)</f>
-        <v>0</v>
+        <v>157.14285714285711</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>39</v>
@@ -7914,19 +7905,19 @@
         <v>34</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
       </c>
       <c r="E12" s="15">
-        <v>0</v>
+        <v>2.4285714285714284</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="10">
         <f>SUMPRODUCT(C3:E3,C12:E12)</f>
-        <v>0</v>
+        <v>2.4171428571428573</v>
       </c>
     </row>
   </sheetData>
@@ -7946,7 +7937,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="14"/>
@@ -8010,7 +8001,7 @@
       </c>
       <c r="F4" s="3">
         <f>SUMPRODUCT(C4:E4,$C$10:$E$10)</f>
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>39</v>
@@ -8034,7 +8025,7 @@
       </c>
       <c r="F5" s="3">
         <f>SUMPRODUCT(C5:E5,$C$10:$E$10)</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>39</v>
@@ -8058,7 +8049,7 @@
       </c>
       <c r="F6" s="3">
         <f>SUMPRODUCT(C6:E6,$C$10:$E$10)</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>39</v>
@@ -8092,10 +8083,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D10" s="14">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E10" s="9">
         <v>0</v>
@@ -8104,7 +8095,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="17">
         <f>SUM(C10:E10)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -8123,8 +8114,8 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B26" activeCellId="1" sqref="B21:C22 B26:C26"/>
+    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="14"/>
@@ -8285,14 +8276,14 @@
         <v>62</v>
       </c>
       <c r="B21" s="21">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C21" s="22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3">
         <f>SUM(B21:C21)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>61</v>
@@ -8306,14 +8297,14 @@
         <v>63</v>
       </c>
       <c r="B22" s="23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C22" s="24">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D22" s="3">
         <f>SUM(B22:C22)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>61</v>
@@ -8328,11 +8319,11 @@
       </c>
       <c r="B23" s="3">
         <f>SUM(B21:B22)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3">
         <f>SUM(C21:C22)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -8352,11 +8343,11 @@
       </c>
       <c r="B25" s="3">
         <f>B26</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3">
         <f>C26</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>71</v>
@@ -8370,14 +8361,14 @@
         <v>66</v>
       </c>
       <c r="B26" s="16">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C26" s="9">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D26" s="3">
         <f>SUM(B26:C26)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>61</v>
@@ -8403,7 +8394,7 @@
       </c>
       <c r="F29" s="29">
         <f>SUMPRODUCT(B10:C11,B21:C22)+SUMPRODUCT(B12:C12,B26:C26)</f>
-        <v>0</v>
+        <v>212000</v>
       </c>
     </row>
   </sheetData>
@@ -8423,7 +8414,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="14"/>
@@ -8637,23 +8628,23 @@
         <v>42</v>
       </c>
       <c r="C12" s="21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" s="32">
         <v>0</v>
       </c>
       <c r="E12" s="32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="32">
         <v>0</v>
       </c>
       <c r="G12" s="22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" ref="H12:H17" si="0">SUM(C12:G12)</f>
-        <v>0</v>
+        <f>SUM(C12:G12)</f>
+        <v>9</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>39</v>
@@ -8670,20 +8661,20 @@
         <v>0</v>
       </c>
       <c r="D13" s="34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="34">
         <v>0</v>
       </c>
       <c r="F13" s="34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G13" s="35">
         <v>0</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="H12:H17" si="0">SUM(C13:G13)</f>
+        <v>8</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>39</v>
@@ -8697,23 +8688,23 @@
         <v>44</v>
       </c>
       <c r="C14" s="33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" s="34">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E14" s="34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14" s="34">
         <v>0</v>
       </c>
       <c r="G14" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>39</v>
@@ -8727,23 +8718,23 @@
         <v>45</v>
       </c>
       <c r="C15" s="33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D15" s="34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E15" s="34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F15" s="34">
         <v>0</v>
       </c>
       <c r="G15" s="35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>39</v>
@@ -8757,23 +8748,23 @@
         <v>46</v>
       </c>
       <c r="C16" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="34">
         <v>0</v>
       </c>
       <c r="E16" s="34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" s="34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="35">
         <v>0</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>39</v>
@@ -8796,14 +8787,14 @@
         <v>0</v>
       </c>
       <c r="F17" s="36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G17" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>39</v>
@@ -8818,23 +8809,23 @@
       </c>
       <c r="C18" s="3">
         <f>SUM(C12:C17)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D18" s="3">
         <f>SUM(D12:D17)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E18" s="3">
         <f>SUM(E12:E17)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F18" s="3">
         <f>SUM(F12:F17)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G18" s="3">
         <f>SUM(G12:G17)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="15" thickBot="1">
@@ -8879,7 +8870,7 @@
       </c>
       <c r="J20" s="29">
         <f>SUMPRODUCT(B3:B8,H12:H17)</f>
-        <v>0</v>
+        <v>1419.2</v>
       </c>
     </row>
     <row r="21" spans="2:10">
@@ -8914,375 +8905,375 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="43" customWidth="1"/>
-    <col min="2" max="6" width="7.5703125" style="43" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.5703125" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" style="43" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.28515625" style="43"/>
+    <col min="1" max="1" width="10.85546875" style="40" customWidth="1"/>
+    <col min="2" max="6" width="7.5703125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" style="40" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.28515625" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="40" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="42">
         <v>61</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="42">
         <v>72</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="42">
         <v>45</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="42">
         <v>55</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="42">
         <v>66</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="44" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="42">
         <v>69</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="42">
         <v>78</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="42">
         <v>60</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="42">
         <v>49</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="42">
         <v>56</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="L4" s="49" t="s">
+      <c r="L4" s="46" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="42">
         <v>59</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="42">
         <v>66</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="42">
         <v>63</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="42">
         <v>61</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="42">
         <v>47</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="K5" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="L5" s="51" t="s">
+      <c r="L5" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="K6" s="50" t="s">
+      <c r="K6" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="L6" s="51" t="s">
+      <c r="L6" s="48" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14" customHeight="1">
-      <c r="A7" s="52"/>
-      <c r="K7" s="50" t="s">
+      <c r="A7" s="49"/>
+      <c r="K7" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="L7" s="51" t="s">
+      <c r="L7" s="48" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="14" customHeight="1">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="K8" s="50" t="s">
+      <c r="K8" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="51" t="s">
+      <c r="L8" s="48" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="K9" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="L9" s="51" t="s">
+      <c r="L9" s="48" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10" s="51">
+        <v>6</v>
+      </c>
+      <c r="C10" s="52">
         <v>0</v>
       </c>
-      <c r="C10" s="55">
+      <c r="D10" s="52">
+        <v>9</v>
+      </c>
+      <c r="E10" s="52">
         <v>0</v>
       </c>
-      <c r="D10" s="55">
+      <c r="F10" s="53">
         <v>0</v>
       </c>
-      <c r="E10" s="55">
+      <c r="G10" s="40">
+        <f>SUM(B10:F10)</f>
+        <v>15</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="42">
+        <v>15</v>
+      </c>
+      <c r="K10" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="56">
+        <v>2</v>
+      </c>
+      <c r="C11" s="57">
         <v>0</v>
       </c>
-      <c r="F10" s="56">
+      <c r="D11" s="57">
         <v>0</v>
       </c>
-      <c r="G10" s="43">
-        <f>SUM(B10:F10)</f>
+      <c r="E11" s="57">
+        <v>10</v>
+      </c>
+      <c r="F11" s="58">
+        <v>8</v>
+      </c>
+      <c r="G11" s="40">
+        <f>SUM(B11:F11)</f>
+        <v>20</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="59">
+        <v>3</v>
+      </c>
+      <c r="C12" s="60">
+        <v>12</v>
+      </c>
+      <c r="D12" s="60">
         <v>0</v>
       </c>
-      <c r="H10" s="43" t="s">
+      <c r="E12" s="60">
+        <v>0</v>
+      </c>
+      <c r="F12" s="61">
+        <v>0</v>
+      </c>
+      <c r="G12" s="40">
+        <f>SUM(B12:F12)</f>
+        <v>15</v>
+      </c>
+      <c r="H12" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I12" s="42">
         <v>15</v>
       </c>
-      <c r="K10" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" s="58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="59">
-        <v>0</v>
-      </c>
-      <c r="C11" s="60">
-        <v>0</v>
-      </c>
-      <c r="D11" s="60">
-        <v>0</v>
-      </c>
-      <c r="E11" s="60">
-        <v>0</v>
-      </c>
-      <c r="F11" s="61">
-        <v>0</v>
-      </c>
-      <c r="G11" s="43">
-        <f>SUM(B11:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="43" t="s">
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="40">
+        <f>SUM(B10:B12)</f>
+        <v>11</v>
+      </c>
+      <c r="C13" s="40">
+        <f>SUM(C10:C12)</f>
+        <v>12</v>
+      </c>
+      <c r="D13" s="40">
+        <f>SUM(D10:D12)</f>
+        <v>9</v>
+      </c>
+      <c r="E13" s="40">
+        <f>SUM(E10:E12)</f>
+        <v>10</v>
+      </c>
+      <c r="F13" s="40">
+        <f>SUM(F10:F12)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" thickBot="1">
+      <c r="A14" s="41"/>
+      <c r="B14" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="45">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="62">
-        <v>0</v>
-      </c>
-      <c r="C12" s="63">
-        <v>0</v>
-      </c>
-      <c r="D12" s="63">
-        <v>0</v>
-      </c>
-      <c r="E12" s="63">
-        <v>0</v>
-      </c>
-      <c r="F12" s="64">
-        <v>0</v>
-      </c>
-      <c r="G12" s="43">
-        <f>SUM(B12:F12)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="43" t="s">
+      <c r="C14" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="45">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="43">
-        <f>SUM(B10:B12)</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="43">
-        <f>SUM(C10:C12)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="43">
-        <f>SUM(D10:D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="43">
-        <f>SUM(E10:E12)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="43">
-        <f>SUM(F10:F12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1">
-      <c r="A14" s="44"/>
-      <c r="B14" s="43" t="s">
+      <c r="D14" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="E14" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="F14" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="40" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="42">
         <v>11</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="42">
         <v>12</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="42">
         <v>9</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="42">
         <v>10</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="42">
         <v>8</v>
       </c>
-      <c r="I15" s="65">
+      <c r="I15" s="62">
         <f>SUMPRODUCT(ShippingCost,ShipmentQuantity)</f>
-        <v>0</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="84" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
     </row>
   </sheetData>
   <printOptions headings="1" gridLines="1"/>
@@ -9300,586 +9291,586 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="B15" sqref="B15:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="43" customWidth="1"/>
-    <col min="2" max="6" width="7.5703125" style="43" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.5703125" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" style="43" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.28515625" style="43"/>
+    <col min="1" max="1" width="13.7109375" style="40" customWidth="1"/>
+    <col min="2" max="6" width="7.5703125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" style="40" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.28515625" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="50" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="40" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="42">
         <v>31</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="42">
         <v>38</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="42">
         <v>24</v>
       </c>
-      <c r="E3" s="89">
+      <c r="E3" s="86">
         <v>55</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="42">
         <v>35</v>
       </c>
-      <c r="I3" s="90" t="s">
+      <c r="I3" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="44" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="42">
         <v>36</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="42">
         <v>43</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="42">
         <v>28</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="42">
         <v>24</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="42">
         <v>31</v>
       </c>
-      <c r="I4" s="91" t="s">
+      <c r="I4" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="L4" s="49" t="s">
+      <c r="L4" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="89">
+      <c r="B5" s="86">
         <v>59</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="42">
         <v>33</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="42">
         <v>36</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="42">
         <v>32</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="42">
         <v>26</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="K5" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="L5" s="51" t="s">
+      <c r="L5" s="48" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="K6" s="50" t="s">
+      <c r="K6" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="L6" s="51" t="s">
+      <c r="L6" s="48" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="51" t="s">
+      <c r="L7" s="48" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="K8" s="50" t="s">
+      <c r="K8" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="L8" s="51" t="s">
+      <c r="L8" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="42">
         <v>275</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="42">
         <v>303</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="42">
         <v>238</v>
       </c>
-      <c r="E9" s="89">
+      <c r="E9" s="86">
         <v>0</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="42">
         <v>285</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="K9" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="L9" s="51" t="s">
+      <c r="L9" s="48" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="42">
         <v>293</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="42">
         <v>318</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="42">
         <v>270</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="42">
         <v>250</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="42">
         <v>265</v>
       </c>
-      <c r="K10" s="50" t="s">
+      <c r="K10" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="L10" s="51" t="s">
+      <c r="L10" s="48" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="89">
+      <c r="B11" s="86">
         <v>0</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="42">
         <v>283</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="42">
         <v>275</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="42">
         <v>268</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="42">
         <v>240</v>
       </c>
-      <c r="K11" s="50" t="s">
+      <c r="K11" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="L11" s="51" t="s">
+      <c r="L11" s="48" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1">
-      <c r="K12" s="57" t="s">
+      <c r="K12" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="L12" s="58" t="s">
+      <c r="L12" s="55" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="40" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="40" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="67">
+      <c r="B15" s="64">
         <f>B3+CostFactor*B9</f>
         <v>58.5</v>
       </c>
-      <c r="C15" s="68">
+      <c r="C15" s="65">
         <f t="shared" ref="B15:F17" si="0">C3+CostFactor*C9</f>
         <v>68.3</v>
       </c>
-      <c r="D15" s="68">
+      <c r="D15" s="65">
         <f t="shared" si="0"/>
         <v>47.8</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="65">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="F15" s="69">
+      <c r="F15" s="66">
         <f t="shared" si="0"/>
         <v>63.5</v>
       </c>
-      <c r="I15" s="70">
+      <c r="I15" s="67">
         <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="71">
+      <c r="B16" s="68">
         <f t="shared" si="0"/>
         <v>65.3</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="40">
         <f t="shared" si="0"/>
         <v>74.8</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D16" s="40">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="40">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="F16" s="72">
+      <c r="F16" s="69">
         <f t="shared" si="0"/>
         <v>57.5</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="73">
+      <c r="B17" s="70">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="C17" s="74">
+      <c r="C17" s="71">
         <f t="shared" si="0"/>
         <v>61.3</v>
       </c>
-      <c r="D17" s="74">
+      <c r="D17" s="71">
         <f t="shared" si="0"/>
         <v>63.5</v>
       </c>
-      <c r="E17" s="74">
+      <c r="E17" s="71">
         <f t="shared" si="0"/>
         <v>58.8</v>
       </c>
-      <c r="F17" s="75">
+      <c r="F17" s="72">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="14" customHeight="1">
-      <c r="A18" s="52"/>
+      <c r="A18" s="49"/>
     </row>
     <row r="19" spans="1:11" ht="14" customHeight="1">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="43" t="s">
+      <c r="G19" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="I19" s="43" t="s">
+      <c r="I19" s="40" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="I20" s="43" t="s">
+      <c r="I20" s="40" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="54">
+      <c r="B21" s="51">
         <v>6</v>
       </c>
-      <c r="C21" s="55">
+      <c r="C21" s="52">
         <v>0</v>
       </c>
-      <c r="D21" s="55">
+      <c r="D21" s="52">
         <v>9</v>
       </c>
-      <c r="E21" s="55">
+      <c r="E21" s="52">
         <v>0</v>
       </c>
-      <c r="F21" s="56">
+      <c r="F21" s="53">
         <v>0</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="40">
         <f>SUM(B21:F21)</f>
         <v>15</v>
       </c>
-      <c r="H21" s="43" t="s">
+      <c r="H21" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="45">
+      <c r="I21" s="42">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="59">
+      <c r="B22" s="56">
         <v>5</v>
       </c>
-      <c r="C22" s="60">
+      <c r="C22" s="57">
         <v>0</v>
       </c>
-      <c r="D22" s="60">
+      <c r="D22" s="57">
         <v>0</v>
       </c>
-      <c r="E22" s="60">
+      <c r="E22" s="57">
         <v>10</v>
       </c>
-      <c r="F22" s="61">
+      <c r="F22" s="58">
         <v>5</v>
       </c>
-      <c r="G22" s="43">
+      <c r="G22" s="40">
         <f>SUM(B22:F22)</f>
         <v>20</v>
       </c>
-      <c r="H22" s="43" t="s">
+      <c r="H22" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="45">
+      <c r="I22" s="42">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="62">
+      <c r="B23" s="59">
         <v>0</v>
       </c>
-      <c r="C23" s="63">
+      <c r="C23" s="60">
         <v>12</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="60">
         <v>0</v>
       </c>
-      <c r="E23" s="63">
+      <c r="E23" s="60">
         <v>0</v>
       </c>
-      <c r="F23" s="64">
+      <c r="F23" s="61">
         <v>3</v>
       </c>
-      <c r="G23" s="43">
+      <c r="G23" s="40">
         <f>SUM(B23:F23)</f>
         <v>15</v>
       </c>
-      <c r="H23" s="43" t="s">
+      <c r="H23" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="45">
+      <c r="I23" s="42">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="43">
+      <c r="B24" s="40">
         <f>SUM(B21:B23)</f>
         <v>11</v>
       </c>
-      <c r="C24" s="43">
+      <c r="C24" s="40">
         <f>SUM(C21:C23)</f>
         <v>12</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="40">
         <f>SUM(D21:D23)</f>
         <v>9</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="40">
         <f>SUM(E21:E23)</f>
         <v>10</v>
       </c>
-      <c r="F24" s="43">
+      <c r="F24" s="40">
         <f>SUM(F21:F23)</f>
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" thickBot="1">
-      <c r="A25" s="44"/>
-      <c r="B25" s="43" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="43" t="s">
+      <c r="E25" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="43" t="s">
+      <c r="I25" s="40" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="45">
+      <c r="B26" s="42">
         <v>11</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26" s="42">
         <v>12</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="42">
         <v>9</v>
       </c>
-      <c r="E26" s="45">
+      <c r="E26" s="42">
         <v>10</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="42">
         <v>8</v>
       </c>
-      <c r="I26" s="65">
+      <c r="I26" s="62">
         <f>SUMPRODUCT(EquivalentCost,ShipmentQuantity)</f>
         <v>2770.8</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="85" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="B29" s="84"/>
+      <c r="B29" s="81"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
     </row>
     <row r="33" spans="9:11">
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
     </row>
     <row r="34" spans="9:11">
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
     </row>
   </sheetData>
   <printOptions headings="1" gridLines="1"/>
@@ -9897,880 +9888,880 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="43" customWidth="1"/>
-    <col min="2" max="6" width="8.42578125" style="43" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.5703125" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" style="43" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.28515625" style="43"/>
+    <col min="1" max="1" width="12.85546875" style="40" customWidth="1"/>
+    <col min="2" max="6" width="8.42578125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" style="40" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.28515625" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="50" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="43" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="40" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="42">
         <v>61</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="42">
         <v>72</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="42">
         <v>45</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="42">
         <v>55</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="42">
         <v>66</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="44" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="42">
         <v>69</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="42">
         <v>78</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="42">
         <v>60</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="42">
         <v>49</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="42">
         <v>56</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="L4" s="49" t="s">
+      <c r="L4" s="46" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="42">
         <v>59</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="42">
         <v>66</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="42">
         <v>63</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="42">
         <v>61</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="42">
         <v>47</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="K5" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="L5" s="51" t="s">
+      <c r="L5" s="48" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="44"/>
-      <c r="B6" s="52"/>
-      <c r="K6" s="50" t="s">
+      <c r="A6" s="41"/>
+      <c r="B6" s="49"/>
+      <c r="K6" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="L6" s="51" t="s">
+      <c r="L6" s="48" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="L7" s="51" t="s">
+      <c r="L7" s="48" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="K8" s="50" t="s">
+      <c r="K8" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="L8" s="51" t="s">
+      <c r="L8" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="42">
         <v>31</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="42">
         <v>38</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="42">
         <v>24</v>
       </c>
-      <c r="E9" s="89">
+      <c r="E9" s="86">
         <v>55</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="42">
         <v>35</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="K9" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="L9" s="51" t="s">
+      <c r="L9" s="48" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="42">
         <v>36</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="42">
         <v>43</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="42">
         <v>28</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="42">
         <v>24</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="42">
         <v>31</v>
       </c>
-      <c r="K10" s="50" t="s">
+      <c r="K10" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="L10" s="51" t="s">
+      <c r="L10" s="48" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="89">
+      <c r="B11" s="86">
         <v>59</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="42">
         <v>33</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="42">
         <v>36</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="42">
         <v>32</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="42">
         <v>26</v>
       </c>
-      <c r="K11" s="50" t="s">
+      <c r="K11" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="L11" s="51" t="s">
+      <c r="L11" s="48" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="K12" s="50" t="s">
+      <c r="K12" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="L12" s="51" t="s">
+      <c r="L12" s="48" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="K13" s="50" t="s">
+      <c r="K13" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="L13" s="51" t="s">
+      <c r="L13" s="48" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="50" t="s">
+      <c r="K14" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="L14" s="51" t="s">
+      <c r="L14" s="48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="42">
         <v>275</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="42">
         <v>303</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="42">
         <v>238</v>
       </c>
-      <c r="E15" s="89">
+      <c r="E15" s="86">
         <v>0</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="42">
         <v>285</v>
       </c>
-      <c r="K15" s="50" t="s">
+      <c r="K15" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="L15" s="51" t="s">
+      <c r="L15" s="48" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="42">
         <v>293</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="42">
         <v>318</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="42">
         <v>270</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="42">
         <v>250</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="42">
         <v>265</v>
       </c>
-      <c r="K16" s="57" t="s">
+      <c r="K16" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="L16" s="58" t="s">
+      <c r="L16" s="55" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="89">
+      <c r="B17" s="86">
         <v>0</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="42">
         <v>283</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="42">
         <v>275</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="42">
         <v>268</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="42">
         <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="I19" s="43" t="s">
+      <c r="I19" s="40" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="I20" s="43" t="s">
+      <c r="I20" s="40" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="67">
+      <c r="B21" s="64">
         <f t="shared" ref="B21:F23" si="0">B9+CostFactor*B15</f>
         <v>58.5</v>
       </c>
-      <c r="C21" s="68">
+      <c r="C21" s="65">
         <f t="shared" si="0"/>
         <v>68.3</v>
       </c>
-      <c r="D21" s="68">
+      <c r="D21" s="65">
         <f t="shared" si="0"/>
         <v>47.8</v>
       </c>
-      <c r="E21" s="68">
+      <c r="E21" s="65">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="F21" s="69">
+      <c r="F21" s="66">
         <f t="shared" si="0"/>
         <v>63.5</v>
       </c>
-      <c r="I21" s="70">
+      <c r="I21" s="67">
         <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="71">
+      <c r="B22" s="68">
         <f t="shared" si="0"/>
         <v>65.3</v>
       </c>
-      <c r="C22" s="43">
+      <c r="C22" s="40">
         <f t="shared" si="0"/>
         <v>74.8</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="40">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="40">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="F22" s="72">
+      <c r="F22" s="69">
         <f t="shared" si="0"/>
         <v>57.5</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="73">
+      <c r="B23" s="70">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="C23" s="74">
+      <c r="C23" s="71">
         <f t="shared" si="0"/>
         <v>61.3</v>
       </c>
-      <c r="D23" s="74">
+      <c r="D23" s="71">
         <f t="shared" si="0"/>
         <v>63.5</v>
       </c>
-      <c r="E23" s="74">
+      <c r="E23" s="71">
         <f t="shared" si="0"/>
         <v>58.8</v>
       </c>
-      <c r="F23" s="75">
+      <c r="F23" s="72">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="44"/>
+      <c r="A24" s="41"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="50" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="43" t="s">
+      <c r="E26" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="43" t="s">
+      <c r="F26" s="40" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="67">
+      <c r="B27" s="64">
         <f t="shared" ref="B27:F29" si="1">MIN(B3,B21)</f>
         <v>58.5</v>
       </c>
-      <c r="C27" s="68">
+      <c r="C27" s="65">
         <f t="shared" si="1"/>
         <v>68.3</v>
       </c>
-      <c r="D27" s="68">
+      <c r="D27" s="65">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="E27" s="68">
+      <c r="E27" s="65">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="F27" s="69">
+      <c r="F27" s="66">
         <f t="shared" si="1"/>
         <v>63.5</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="71">
+      <c r="B28" s="68">
         <f t="shared" si="1"/>
         <v>65.3</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="40">
         <f t="shared" si="1"/>
         <v>74.8</v>
       </c>
-      <c r="D28" s="43">
+      <c r="D28" s="40">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="40">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="F28" s="72">
+      <c r="F28" s="69">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="70">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="C29" s="74">
+      <c r="C29" s="71">
         <f t="shared" si="1"/>
         <v>61.3</v>
       </c>
-      <c r="D29" s="74">
+      <c r="D29" s="71">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="E29" s="74">
+      <c r="E29" s="71">
         <f t="shared" si="1"/>
         <v>58.8</v>
       </c>
-      <c r="F29" s="75">
+      <c r="F29" s="72">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14" customHeight="1">
-      <c r="A30" s="52"/>
+      <c r="A30" s="49"/>
     </row>
     <row r="31" spans="1:9" ht="14" customHeight="1">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="43" t="s">
+      <c r="G31" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="I31" s="43" t="s">
+      <c r="I31" s="40" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="43" t="s">
+      <c r="E32" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="43" t="s">
+      <c r="F32" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="43" t="s">
+      <c r="G32" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="I32" s="43" t="s">
+      <c r="I32" s="40" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="54">
+      <c r="B33" s="51">
+        <v>6</v>
+      </c>
+      <c r="C33" s="52">
         <v>0</v>
       </c>
-      <c r="C33" s="55">
+      <c r="D33" s="52">
+        <v>9</v>
+      </c>
+      <c r="E33" s="52">
         <v>0</v>
       </c>
-      <c r="D33" s="55">
+      <c r="F33" s="53">
         <v>0</v>
       </c>
-      <c r="E33" s="55">
+      <c r="G33" s="40">
+        <f>SUM(B33:F33)</f>
+        <v>15</v>
+      </c>
+      <c r="H33" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="56">
+        <v>5</v>
+      </c>
+      <c r="C34" s="57">
         <v>0</v>
       </c>
-      <c r="F33" s="56">
+      <c r="D34" s="57">
         <v>0</v>
       </c>
-      <c r="G33" s="43">
-        <f>SUM(B33:F33)</f>
+      <c r="E34" s="57">
+        <v>10</v>
+      </c>
+      <c r="F34" s="58">
+        <v>5</v>
+      </c>
+      <c r="G34" s="40">
+        <f>SUM(B34:F34)</f>
+        <v>20</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="I34" s="42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="59">
         <v>0</v>
       </c>
-      <c r="H33" s="43" t="s">
+      <c r="C35" s="60">
+        <v>12</v>
+      </c>
+      <c r="D35" s="60">
+        <v>0</v>
+      </c>
+      <c r="E35" s="60">
+        <v>0</v>
+      </c>
+      <c r="F35" s="61">
+        <v>3</v>
+      </c>
+      <c r="G35" s="40">
+        <f>SUM(B35:F35)</f>
+        <v>15</v>
+      </c>
+      <c r="H35" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="I33" s="45">
+      <c r="I35" s="42">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="59">
-        <v>0</v>
-      </c>
-      <c r="C34" s="60">
-        <v>0</v>
-      </c>
-      <c r="D34" s="60">
-        <v>0</v>
-      </c>
-      <c r="E34" s="60">
-        <v>0</v>
-      </c>
-      <c r="F34" s="61">
-        <v>0</v>
-      </c>
-      <c r="G34" s="43">
-        <f>SUM(B34:F34)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="43" t="s">
+    <row r="36" spans="1:11">
+      <c r="A36" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="40">
+        <f>SUM(B33:B35)</f>
+        <v>11</v>
+      </c>
+      <c r="C36" s="40">
+        <f>SUM(C33:C35)</f>
+        <v>12</v>
+      </c>
+      <c r="D36" s="40">
+        <f>SUM(D33:D35)</f>
+        <v>9</v>
+      </c>
+      <c r="E36" s="40">
+        <f>SUM(E33:E35)</f>
+        <v>10</v>
+      </c>
+      <c r="F36" s="40">
+        <f>SUM(F33:F35)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" thickBot="1">
+      <c r="A37" s="41"/>
+      <c r="B37" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="I34" s="45">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="62">
-        <v>0</v>
-      </c>
-      <c r="C35" s="63">
-        <v>0</v>
-      </c>
-      <c r="D35" s="63">
-        <v>0</v>
-      </c>
-      <c r="E35" s="63">
-        <v>0</v>
-      </c>
-      <c r="F35" s="64">
-        <v>0</v>
-      </c>
-      <c r="G35" s="43">
-        <f>SUM(B35:F35)</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="43" t="s">
+      <c r="C37" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="I35" s="45">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="43">
-        <f>SUM(B33:B35)</f>
-        <v>0</v>
-      </c>
-      <c r="C36" s="43">
-        <f>SUM(C33:C35)</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="43">
-        <f>SUM(D33:D35)</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="43">
-        <f>SUM(E33:E35)</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="43">
-        <f>SUM(F33:F35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15" thickBot="1">
-      <c r="A37" s="44"/>
-      <c r="B37" s="43" t="s">
+      <c r="D37" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="E37" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="43" t="s">
+      <c r="F37" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="I37" s="43" t="s">
+      <c r="I37" s="40" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15" thickBot="1">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="45">
+      <c r="B38" s="42">
         <v>11</v>
       </c>
-      <c r="C38" s="45">
+      <c r="C38" s="42">
         <v>12</v>
       </c>
-      <c r="D38" s="45">
+      <c r="D38" s="42">
         <v>9</v>
       </c>
-      <c r="E38" s="45">
+      <c r="E38" s="42">
         <v>10</v>
       </c>
-      <c r="F38" s="45">
+      <c r="F38" s="42">
         <v>8</v>
       </c>
-      <c r="I38" s="65">
+      <c r="I38" s="62">
         <f>SUMPRODUCT(BestAnnualCost,ShipmentQuantity)</f>
-        <v>0</v>
+        <v>2729.1</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="50" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" thickBot="1">
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="43" t="s">
+      <c r="D41" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="E41" s="43" t="s">
+      <c r="E41" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="F41" s="43" t="s">
+      <c r="F41" s="40" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="76" t="str">
+      <c r="B42" s="73" t="str">
         <f>IF(B33&gt;0,IF(B27=B21,"Water","Rail"),"")</f>
-        <v/>
-      </c>
-      <c r="C42" s="77" t="str">
+        <v>Water</v>
+      </c>
+      <c r="C42" s="74" t="str">
         <f t="shared" ref="B42:F44" si="2">IF(C33&gt;0,IF(C27=C21,"Water","Rail"),"")</f>
         <v/>
       </c>
-      <c r="D42" s="77" t="str">
+      <c r="D42" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>Rail</v>
+      </c>
+      <c r="E42" s="74" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E42" s="77" t="str">
+      <c r="F42" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F42" s="78" t="str">
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="76" t="str">
+        <f t="shared" si="2"/>
+        <v>Water</v>
+      </c>
+      <c r="C43" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="79" t="str">
+      <c r="D43" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C43" s="43" t="str">
+      <c r="E43" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Water</v>
+      </c>
+      <c r="F43" s="77" t="str">
+        <f t="shared" si="2"/>
+        <v>Rail</v>
+      </c>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+    </row>
+    <row r="44" spans="1:11" ht="15" thickBot="1">
+      <c r="A44" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="78" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D43" s="43" t="str">
+      <c r="C44" s="79" t="str">
+        <f t="shared" si="2"/>
+        <v>Water</v>
+      </c>
+      <c r="D44" s="79" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E43" s="43" t="str">
+      <c r="E44" s="79" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F43" s="80" t="str">
+      <c r="F44" s="80" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I43" s="66"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="66"/>
-    </row>
-    <row r="44" spans="1:11" ht="15" thickBot="1">
-      <c r="A44" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="81" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="C44" s="82" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D44" s="82" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E44" s="82" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F44" s="83" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
+        <v>Rail</v>
+      </c>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="I45" s="66"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="B46" s="85" t="s">
+      <c r="B46" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="I46" s="66"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="66"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="B47" s="86"/>
+      <c r="B47" s="83"/>
     </row>
   </sheetData>
   <printOptions headings="1" gridLines="1"/>
